--- a/SCENARIOS.xlsx
+++ b/SCENARIOS.xlsx
@@ -5,21 +5,21 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jyotiras\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sainduku\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="9600" windowHeight="7080"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12420" windowHeight="7680"/>
   </bookViews>
   <sheets>
     <sheet name="SCENARIOS" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="115">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -101,12 +101,6 @@
     <t>verification of application form</t>
   </si>
   <si>
-    <t xml:space="preserve">1.to validate the availability of program details page
-2. To validate the availability of Apply for program button in program details page
-3. to validate the availability of back button
-</t>
-  </si>
-  <si>
     <t>verification of check application status button</t>
   </si>
   <si>
@@ -117,11 +111,6 @@
   </si>
   <si>
     <t>TS_admin _003</t>
-  </si>
-  <si>
-    <t>1.To validate the admin's login when valid login credentials are given
-2.To validate the admin's login when invalid login credentials are given
-3.To validate the admin 's login when user_id and password are blank.</t>
   </si>
   <si>
     <t>TS_lad _004</t>
@@ -443,6 +432,11 @@
   </si>
   <si>
     <t>TRAINEE TEST ENGINEERS</t>
+  </si>
+  <si>
+    <t>1.To validate the admin's login when valid login credentials are given  
+2.To validate the admin's login when invalid login credentials are given
+3.To validate the admin 's login when user_id and password are blank.</t>
   </si>
 </sst>
 </file>
@@ -885,8 +879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="B19" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -902,19 +896,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C1" s="11"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C2" s="11"/>
     </row>
@@ -925,21 +919,21 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C5" s="9">
         <v>43239</v>
@@ -947,13 +941,13 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1003,7 +997,7 @@
     </row>
     <row r="13" spans="1:6" ht="30">
       <c r="A13" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>16</v>
@@ -1018,12 +1012,12 @@
         <v>1</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="102.75" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>17</v>
@@ -1038,12 +1032,12 @@
         <v>3</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>30</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="99" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>18</v>
@@ -1058,12 +1052,12 @@
         <v>1</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="93.75" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>19</v>
@@ -1078,12 +1072,12 @@
         <v>3</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="81.75" customHeight="1">
       <c r="A17" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>21</v>
@@ -1098,15 +1092,15 @@
         <v>1</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="113.25" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>22</v>
@@ -1118,15 +1112,15 @@
         <v>2</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="123.75" customHeight="1">
       <c r="A19" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>23</v>
@@ -1137,16 +1131,16 @@
       <c r="E19" s="2">
         <v>3</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>25</v>
+      <c r="F19" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="101.25" customHeight="1">
       <c r="A20" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>24</v>
@@ -1158,38 +1152,38 @@
         <v>3</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="82.5" customHeight="1">
       <c r="A21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="E21" s="2">
         <v>2</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="45">
       <c r="A22" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>9</v>
@@ -1198,18 +1192,18 @@
         <v>1</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="125.25" customHeight="1">
       <c r="A23" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>15</v>
@@ -1218,18 +1212,18 @@
         <v>3</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="123.75" customHeight="1">
       <c r="A24" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>9</v>
@@ -1238,18 +1232,18 @@
         <v>4</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="221.25" customHeight="1">
       <c r="A25" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>9</v>
@@ -1258,35 +1252,35 @@
         <v>6</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="206.25" customHeight="1">
       <c r="A26" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C26" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="E26" s="2">
         <v>7</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="60">
       <c r="A27" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>22</v>
@@ -1298,38 +1292,38 @@
         <v>3</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="228" customHeight="1">
       <c r="A28" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C28" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="E28" s="2">
         <v>7</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="90">
       <c r="A29" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>9</v>
@@ -1338,18 +1332,18 @@
         <v>4</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="60">
       <c r="A30" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>9</v>
@@ -1358,18 +1352,18 @@
         <v>2</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="195">
       <c r="A31" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>9</v>
@@ -1378,18 +1372,18 @@
         <v>8</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="85.5" customHeight="1">
       <c r="A32" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>9</v>
@@ -1398,18 +1392,18 @@
         <v>2</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:20" ht="165">
       <c r="A33" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>9</v>
@@ -1418,18 +1412,18 @@
         <v>7</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:20" ht="192" customHeight="1">
       <c r="A34" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>9</v>
@@ -1438,24 +1432,24 @@
         <v>4</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48" spans="1:20">
       <c r="R48" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="S48" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="T48" s="11"/>
     </row>
     <row r="49" spans="18:20">
       <c r="R49" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="S49" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="T49" s="11"/>
     </row>
@@ -1466,21 +1460,21 @@
     </row>
     <row r="51" spans="18:20">
       <c r="R51" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="S51" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="T51" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="S51" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="T51" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="52" spans="18:20" ht="51">
       <c r="R52" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="S52" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="T52" s="9">
         <v>43230</v>
@@ -1488,13 +1482,13 @@
     </row>
     <row r="53" spans="18:20">
       <c r="R53" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="S53" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="T53" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="54" spans="18:20">
